--- a/examples/chains.comp.xlsx
+++ b/examples/chains.comp.xlsx
@@ -5,11 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$86</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet2!$A$1:$K$86</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="242">
   <si>
     <t xml:space="preserve">select</t>
   </si>
@@ -76,12 +81,21 @@
     <t xml:space="preserve">X-ray</t>
   </si>
   <si>
+    <t xml:space="preserve">Missing residues at L56</t>
+  </si>
+  <si>
     <t xml:space="preserve">B</t>
   </si>
   <si>
+    <t xml:space="preserve">Missing residues at L34, L56</t>
+  </si>
+  <si>
     <t xml:space="preserve">1gzm</t>
   </si>
   <si>
+    <t xml:space="preserve">Alternative modeling to 3c9l</t>
+  </si>
+  <si>
     <t xml:space="preserve">1hzx</t>
   </si>
   <si>
@@ -91,6 +105,9 @@
     <t xml:space="preserve">1u19</t>
   </si>
   <si>
+    <t xml:space="preserve">Highly similar to 2g87 and 2ped</t>
+  </si>
+  <si>
     <t xml:space="preserve">2g87</t>
   </si>
   <si>
@@ -109,6 +126,9 @@
     <t xml:space="preserve">11-cis detached</t>
   </si>
   <si>
+    <t xml:space="preserve">ground state</t>
+  </si>
+  <si>
     <t xml:space="preserve">2i36</t>
   </si>
   <si>
@@ -130,6 +150,9 @@
     <t xml:space="preserve">N2C/N15D/D282C</t>
   </si>
   <si>
+    <t xml:space="preserve">Alternative modeling to 3c9m</t>
+  </si>
+  <si>
     <t xml:space="preserve">2ped</t>
   </si>
   <si>
@@ -175,12 +198,18 @@
     <t xml:space="preserve">3c9l</t>
   </si>
   <si>
+    <t xml:space="preserve">Alternative modeling to 1gzm</t>
+  </si>
+  <si>
     <t xml:space="preserve">3c9m</t>
   </si>
   <si>
     <t xml:space="preserve">N2C/D282C</t>
   </si>
   <si>
+    <t xml:space="preserve">Alternative modeling to 2j4y</t>
+  </si>
+  <si>
     <t xml:space="preserve">3cap</t>
   </si>
   <si>
@@ -262,25 +291,6 @@
     <t xml:space="preserve">XFEL; c04_05 components identical</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">XFEL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">; c04_05 components identical</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">D</t>
   </si>
   <si>
@@ -344,10 +354,13 @@
     <t xml:space="preserve">6fk6</t>
   </si>
   <si>
+    <t xml:space="preserve">drug binding</t>
+  </si>
+  <si>
     <t xml:space="preserve">N2C/N282C</t>
   </si>
   <si>
-    <t xml:space="preserve">Stabilizer</t>
+    <t xml:space="preserve">Drug binding</t>
   </si>
   <si>
     <t xml:space="preserve">6fk7</t>
@@ -408,6 +421,336 @@
   </si>
   <si>
     <t xml:space="preserve">Gnai1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">330K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">310K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">360K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b411</t>
   </si>
 </sst>
 </file>
@@ -417,7 +760,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -438,11 +781,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -487,16 +825,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -512,6 +846,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -519,15 +861,15 @@
   </sheetPr>
   <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A68" activeCellId="0" sqref="A68"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B86" activeCellId="0" sqref="B86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="31.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="31.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="27.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="30.29"/>
@@ -599,6 +941,9 @@
       <c r="J2" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="K2" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -608,7 +953,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>14</v>
@@ -631,13 +976,16 @@
       <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="K3" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>13</v>
@@ -663,16 +1011,19 @@
       <c r="J4" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="K4" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>14</v>
@@ -690,10 +1041,13 @@
         <v>16</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -701,7 +1055,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>13</v>
@@ -727,16 +1081,19 @@
       <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="K6" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>14</v>
@@ -759,13 +1116,16 @@
       <c r="J7" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="K7" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>13</v>
@@ -791,16 +1151,19 @@
       <c r="J8" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="K8" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>14</v>
@@ -823,13 +1186,16 @@
       <c r="J9" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="K9" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>13</v>
@@ -855,16 +1221,19 @@
       <c r="J10" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="K10" s="0" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>14</v>
@@ -887,13 +1256,16 @@
       <c r="J11" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="K11" s="0" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>13</v>
@@ -902,7 +1274,7 @@
         <v>14</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>16</v>
@@ -925,16 +1297,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>16</v>
@@ -957,7 +1329,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>13</v>
@@ -966,7 +1338,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>16</v>
@@ -989,16 +1361,16 @@
         <v>11</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>16</v>
@@ -1021,7 +1393,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>13</v>
@@ -1030,7 +1402,7 @@
         <v>14</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>16</v>
@@ -1047,13 +1419,16 @@
       <c r="J16" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="K16" s="0" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>13</v>
@@ -1062,7 +1437,7 @@
         <v>14</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>16</v>
@@ -1079,22 +1454,25 @@
       <c r="J17" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="K17" s="0" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>16</v>
@@ -1111,22 +1489,25 @@
       <c r="J18" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="K18" s="0" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>16</v>
@@ -1143,13 +1524,16 @@
       <c r="J19" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="K19" s="0" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>13</v>
@@ -1158,7 +1542,7 @@
         <v>14</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>16</v>
@@ -1176,7 +1560,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1184,16 +1568,16 @@
         <v>11</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>16</v>
@@ -1211,7 +1595,7 @@
         <v>17</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1219,16 +1603,16 @@
         <v>11</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>16</v>
@@ -1246,7 +1630,7 @@
         <v>17</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1254,7 +1638,7 @@
         <v>11</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>13</v>
@@ -1266,7 +1650,7 @@
         <v>15</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>16</v>
@@ -1280,16 +1664,19 @@
       <c r="J23" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="K23" s="0" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>14</v>
@@ -1298,7 +1685,7 @@
         <v>15</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>16</v>
@@ -1312,13 +1699,16 @@
       <c r="J24" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="K24" s="0" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>13</v>
@@ -1327,7 +1717,7 @@
         <v>14</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>16</v>
@@ -1350,16 +1740,16 @@
         <v>11</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>16</v>
@@ -1382,7 +1772,7 @@
         <v>11</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>13</v>
@@ -1391,16 +1781,16 @@
         <v>14</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>3</v>
@@ -1409,27 +1799,27 @@
         <v>17</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>16</v>
@@ -1446,16 +1836,16 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>15</v>
@@ -1478,16 +1868,16 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>15</v>
@@ -1510,19 +1900,19 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>16</v>
@@ -1542,19 +1932,19 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>16</v>
@@ -1574,19 +1964,19 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>16</v>
@@ -1606,19 +1996,19 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>16</v>
@@ -1641,7 +2031,7 @@
         <v>11</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>13</v>
@@ -1667,13 +2057,16 @@
       <c r="J35" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="K35" s="0" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>11</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>13</v>
@@ -1685,7 +2078,7 @@
         <v>15</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>16</v>
@@ -1699,13 +2092,16 @@
       <c r="J36" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="K36" s="0" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>11</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>13</v>
@@ -1714,7 +2110,7 @@
         <v>14</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>16</v>
@@ -1737,16 +2133,16 @@
         <v>11</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>14</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F38" s="0" t="s">
         <v>16</v>
@@ -1769,7 +2165,7 @@
         <v>11</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>13</v>
@@ -1778,7 +2174,7 @@
         <v>14</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F39" s="0" t="s">
         <v>16</v>
@@ -1787,7 +2183,7 @@
         <v>16</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I39" s="0" t="n">
         <v>3.2</v>
@@ -1796,7 +2192,7 @@
         <v>17</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1804,7 +2200,7 @@
         <v>11</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>13</v>
@@ -1831,7 +2227,7 @@
         <v>17</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1839,10 +2235,10 @@
         <v>11</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>14</v>
@@ -1866,7 +2262,7 @@
         <v>17</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1874,7 +2270,7 @@
         <v>11</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>13</v>
@@ -1883,7 +2279,7 @@
         <v>14</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>16</v>
@@ -1892,7 +2288,7 @@
         <v>16</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="I42" s="1" t="n">
         <v>2.85</v>
@@ -1901,7 +2297,7 @@
         <v>17</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1909,7 +2305,7 @@
         <v>11</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>13</v>
@@ -1918,7 +2314,7 @@
         <v>14</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F43" s="0" t="s">
         <v>16</v>
@@ -1941,7 +2337,7 @@
         <v>11</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>13</v>
@@ -1950,16 +2346,16 @@
         <v>14</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G44" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I44" s="0" t="n">
         <v>3.3</v>
@@ -1973,7 +2369,7 @@
         <v>11</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>13</v>
@@ -1982,16 +2378,16 @@
         <v>14</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G45" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I45" s="0" t="n">
         <v>2.9</v>
@@ -2005,7 +2401,7 @@
         <v>11</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>13</v>
@@ -2014,10 +2410,10 @@
         <v>14</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G46" s="0" t="s">
         <v>16</v>
@@ -2032,7 +2428,7 @@
         <v>17</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2040,25 +2436,25 @@
         <v>11</v>
       </c>
       <c r="B47" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="0" t="s">
         <v>69</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F47" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H47" s="0" t="s">
-        <v>61</v>
       </c>
       <c r="I47" s="0" t="n">
         <v>2.65</v>
@@ -2067,7 +2463,7 @@
         <v>17</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2075,7 +2471,7 @@
         <v>11</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>13</v>
@@ -2084,7 +2480,7 @@
         <v>14</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F48" s="0" t="s">
         <v>16</v>
@@ -2093,7 +2489,7 @@
         <v>16</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I48" s="0" t="n">
         <v>2.75</v>
@@ -2104,19 +2500,19 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F49" s="0" t="s">
         <v>16</v>
@@ -2136,19 +2532,19 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F50" s="0" t="s">
         <v>16</v>
@@ -2171,7 +2567,7 @@
         <v>11</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>13</v>
@@ -2180,7 +2576,7 @@
         <v>14</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F51" s="0" t="s">
         <v>16</v>
@@ -2189,7 +2585,7 @@
         <v>16</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I51" s="0" t="n">
         <v>2.29</v>
@@ -2200,10 +2596,10 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>13</v>
@@ -2212,16 +2608,16 @@
         <v>14</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I52" s="0" t="n">
         <v>3.3</v>
@@ -2230,33 +2626,33 @@
         <v>17</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>14</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I53" s="1" t="n">
         <v>3.3</v>
@@ -2265,33 +2661,33 @@
         <v>17</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>14</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I54" s="1" t="n">
         <v>3.3</v>
@@ -2300,33 +2696,33 @@
         <v>17</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>14</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I55" s="1" t="n">
         <v>3.3</v>
@@ -2335,15 +2731,15 @@
         <v>17</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>13</v>
@@ -2352,16 +2748,16 @@
         <v>14</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I56" s="0" t="n">
         <v>7.7</v>
@@ -2370,33 +2766,33 @@
         <v>17</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>14</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I57" s="1" t="n">
         <v>7.7</v>
@@ -2405,33 +2801,33 @@
         <v>17</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>14</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I58" s="1" t="n">
         <v>7.7</v>
@@ -2440,33 +2836,33 @@
         <v>17</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>14</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I59" s="1" t="n">
         <v>7.7</v>
@@ -2475,7 +2871,7 @@
         <v>17</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2483,7 +2879,7 @@
         <v>11</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>13</v>
@@ -2492,10 +2888,10 @@
         <v>14</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G60" s="0" t="s">
         <v>16</v>
@@ -2510,7 +2906,7 @@
         <v>17</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2518,7 +2914,7 @@
         <v>11</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>13</v>
@@ -2527,16 +2923,16 @@
         <v>14</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G61" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I61" s="0" t="n">
         <v>2.81</v>
@@ -2544,16 +2940,16 @@
       <c r="J61" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="K61" s="2" t="s">
-        <v>85</v>
+      <c r="K61" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>13</v>
@@ -2562,7 +2958,7 @@
         <v>14</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F62" s="0" t="s">
         <v>16</v>
@@ -2580,15 +2976,15 @@
         <v>17</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>13</v>
@@ -2597,7 +2993,7 @@
         <v>14</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F63" s="0" t="s">
         <v>16</v>
@@ -2615,15 +3011,15 @@
         <v>17</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>13</v>
@@ -2632,16 +3028,16 @@
         <v>14</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I64" s="0" t="n">
         <v>3.01</v>
@@ -2650,33 +3046,33 @@
         <v>17</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>14</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I65" s="1" t="n">
         <v>3.01</v>
@@ -2685,33 +3081,33 @@
         <v>17</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>14</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I66" s="1" t="n">
         <v>3.01</v>
@@ -2720,33 +3116,33 @@
         <v>17</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>14</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I67" s="1" t="n">
         <v>3.01</v>
@@ -2755,7 +3151,7 @@
         <v>17</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2763,7 +3159,7 @@
         <v>11</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>13</v>
@@ -2772,7 +3168,7 @@
         <v>14</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F68" s="0" t="s">
         <v>16</v>
@@ -2781,7 +3177,7 @@
         <v>16</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="I68" s="0" t="n">
         <v>3.2</v>
@@ -2790,7 +3186,7 @@
         <v>17</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2798,22 +3194,22 @@
         <v>11</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D69" s="0" t="s">
         <v>14</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H69" s="0" t="s">
         <v>16</v>
@@ -2822,10 +3218,10 @@
         <v>4.5</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2833,7 +3229,7 @@
         <v>11</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>13</v>
@@ -2842,10 +3238,10 @@
         <v>14</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G70" s="0" t="s">
         <v>16</v>
@@ -2860,7 +3256,7 @@
         <v>17</v>
       </c>
       <c r="K70" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2868,7 +3264,7 @@
         <v>11</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>13</v>
@@ -2877,10 +3273,10 @@
         <v>14</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G71" s="0" t="s">
         <v>16</v>
@@ -2894,8 +3290,8 @@
       <c r="J71" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="K71" s="1" t="s">
-        <v>103</v>
+      <c r="K71" s="0" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2903,7 +3299,7 @@
         <v>11</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>13</v>
@@ -2912,10 +3308,10 @@
         <v>14</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>16</v>
@@ -2929,8 +3325,8 @@
       <c r="J72" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="K72" s="1" t="s">
-        <v>103</v>
+      <c r="K72" s="0" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2938,7 +3334,7 @@
         <v>11</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>13</v>
@@ -2946,11 +3342,11 @@
       <c r="D73" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E73" s="0" t="s">
-        <v>54</v>
+      <c r="E73" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>16</v>
@@ -2965,7 +3361,7 @@
         <v>17</v>
       </c>
       <c r="K73" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2973,7 +3369,7 @@
         <v>11</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>13</v>
@@ -2982,10 +3378,10 @@
         <v>14</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>16</v>
@@ -2999,8 +3395,8 @@
       <c r="J74" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="K74" s="1" t="s">
-        <v>103</v>
+      <c r="K74" s="0" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3008,7 +3404,7 @@
         <v>11</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>13</v>
@@ -3017,10 +3413,10 @@
         <v>14</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>16</v>
@@ -3034,8 +3430,8 @@
       <c r="J75" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="K75" s="1" t="s">
-        <v>103</v>
+      <c r="K75" s="0" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3043,19 +3439,19 @@
         <v>11</v>
       </c>
       <c r="B76" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C76" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="F76" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>16</v>
@@ -3070,7 +3466,7 @@
         <v>17</v>
       </c>
       <c r="K76" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3078,7 +3474,7 @@
         <v>11</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>13</v>
@@ -3087,16 +3483,16 @@
         <v>14</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G77" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="I77" s="0" t="n">
         <v>3.12</v>
@@ -3105,7 +3501,7 @@
         <v>17</v>
       </c>
       <c r="K77" s="0" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3113,7 +3509,7 @@
         <v>11</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>13</v>
@@ -3122,7 +3518,7 @@
         <v>14</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F78" s="0" t="s">
         <v>16</v>
@@ -3131,7 +3527,7 @@
         <v>16</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="I78" s="0" t="n">
         <v>2.71</v>
@@ -3140,7 +3536,7 @@
         <v>17</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3148,7 +3544,7 @@
         <v>11</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>13</v>
@@ -3157,7 +3553,7 @@
         <v>14</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F79" s="0" t="s">
         <v>16</v>
@@ -3172,7 +3568,7 @@
         <v>4.5</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3180,16 +3576,16 @@
         <v>11</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>14</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F80" s="0" t="s">
         <v>16</v>
@@ -3204,7 +3600,7 @@
         <v>4.5</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3212,16 +3608,16 @@
         <v>11</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>14</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F81" s="0" t="s">
         <v>16</v>
@@ -3230,16 +3626,16 @@
         <v>16</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I81" s="0" t="n">
         <v>3.9</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3247,16 +3643,16 @@
         <v>11</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>14</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F82" s="0" t="s">
         <v>16</v>
@@ -3265,16 +3661,16 @@
         <v>16</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I82" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K82" s="0" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3282,7 +3678,7 @@
         <v>11</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>13</v>
@@ -3291,7 +3687,7 @@
         <v>14</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F83" s="0" t="s">
         <v>16</v>
@@ -3300,7 +3696,7 @@
         <v>16</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="I83" s="0" t="n">
         <v>3.19</v>
@@ -3309,7 +3705,7 @@
         <v>17</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3317,7 +3713,7 @@
         <v>11</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>13</v>
@@ -3326,7 +3722,7 @@
         <v>14</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F84" s="0" t="s">
         <v>16</v>
@@ -3335,7 +3731,7 @@
         <v>16</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="I84" s="0" t="n">
         <v>2.9</v>
@@ -3344,7 +3740,7 @@
         <v>17</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3352,7 +3748,7 @@
         <v>11</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>13</v>
@@ -3361,7 +3757,7 @@
         <v>14</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>16</v>
@@ -3370,7 +3766,7 @@
         <v>16</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="I85" s="0" t="n">
         <v>2.9</v>
@@ -3379,7 +3775,7 @@
         <v>17</v>
       </c>
       <c r="K85" s="0" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3387,34 +3783,34 @@
         <v>11</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D86" s="0" t="s">
         <v>14</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G86" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="I86" s="0" t="n">
         <v>4.38</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3427,6 +3823,7 @@
       <c r="E89" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K86"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3434,5 +3831,4465 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K193"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A163" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E193" activeCellId="0" sqref="E193"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="31.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="27.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="30.29"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I42" s="1" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I53" s="1" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I54" s="1" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I55" s="1" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I57" s="1" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I58" s="1" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I59" s="1" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" s="0" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K60" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="I61" s="0" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K62" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" s="0" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K63" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I64" s="0" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="J64" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I65" s="1" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I66" s="1" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I67" s="1" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G68" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H68" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I68" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J68" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K68" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="H69" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J69" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="K69" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G70" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H70" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I70" s="0" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="J70" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K70" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" s="0" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="J71" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K71" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" s="0" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="J72" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K72" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73" s="0" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J73" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K73" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I74" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J74" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K74" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I75" s="0" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="J75" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K75" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I76" s="0" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="J76" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K76" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G77" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H77" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="I77" s="0" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="J77" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K77" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G78" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H78" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I78" s="0" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="J78" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G79" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H79" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J79" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G80" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H80" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J80" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G81" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H81" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I81" s="0" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J81" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F82" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G82" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H82" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I82" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J82" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="K82" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I83" s="0" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="J83" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G84" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H84" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="I84" s="0" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J84" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I85" s="0" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J85" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K85" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G86" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H86" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="I86" s="0" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="J86" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="C141" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C142" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="C149" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C150" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="C153" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C154" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C155" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="C156" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C157" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="C158" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="C159" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C160" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="C161" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C162" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="C163" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C164" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="C165" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="C166" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C167" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C168" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="C169" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C170" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="C171" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="C172" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C173" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B174" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C174" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="C175" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C176" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="C177" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="C178" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C179" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="C180" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B181" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="C181" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C182" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B183" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="C183" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C184" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B185" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C185" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C186" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B187" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="C187" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B188" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C188" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B189" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="C189" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B190" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C190" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B191" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C191" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B192" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C192" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E193" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K86"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/examples/chains.comp.xlsx
+++ b/examples/chains.comp.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2846" uniqueCount="435">
   <si>
     <t xml:space="preserve">select</t>
   </si>
@@ -751,6 +751,585 @@
   </si>
   <si>
     <t xml:space="preserve">b411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mp01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mp02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mp03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mp04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mp05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mp06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mp07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mp08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mp09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mp10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mp11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mp12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mp13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mp14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mp15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mp16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mp17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mp18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mp19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mp20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mp21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mp22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mp23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mp24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mp25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mp26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mp27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mp28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mp29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mp30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">morph2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">morph3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gpcrmd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y013</t>
   </si>
 </sst>
 </file>
@@ -865,7 +1444,7 @@
       <selection pane="topLeft" activeCell="B86" activeCellId="0" sqref="B86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.37"/>
@@ -3826,7 +4405,7 @@
   <autoFilter ref="A1:K86"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3840,13 +4419,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K193"/>
+  <dimension ref="A1:K379"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A163" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E193" activeCellId="0" sqref="E193"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A354" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G377" activeCellId="0" sqref="G377"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.37"/>
@@ -8279,13 +8858,2628 @@
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E193" s="1"/>
+      <c r="A193" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B193" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C193" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B194" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="C194" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B195" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="C195" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B196" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="C196" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B197" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C197" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C198" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B199" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C199" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B200" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C200" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B201" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="C201" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="C202" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B203" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="C203" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B204" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C204" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B205" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C205" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B206" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C206" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B207" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C207" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B208" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C208" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B209" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C209" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B210" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="C210" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B211" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C211" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B212" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C212" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B213" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C213" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B214" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="C214" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B215" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="C215" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B216" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C216" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B217" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="C217" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B218" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="C218" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B219" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C219" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B220" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="C220" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B221" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C221" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B222" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="C222" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B223" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="C223" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B224" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C224" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B225" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C225" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B226" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="C226" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B227" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="C227" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B228" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="C228" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B229" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C229" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B230" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="C230" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B231" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="C231" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B232" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="C232" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B233" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="C233" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B234" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C234" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B235" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="C235" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B236" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="C236" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B237" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="C237" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B238" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="C238" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B239" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="C239" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B240" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="C240" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B241" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C241" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B242" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="C242" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B243" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="C243" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B244" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="C244" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B245" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="C245" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B246" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C246" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B247" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="C247" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B248" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="C248" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B249" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="C249" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B250" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="C250" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B251" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="C251" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B252" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="C252" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B253" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="C253" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B254" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C254" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B255" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="C255" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B256" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="C256" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B257" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="C257" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B258" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="C258" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B259" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="C259" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B260" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="C260" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B261" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C261" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B262" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="C262" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B263" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="C263" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B264" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C264" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B265" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="C265" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B266" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="C266" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B267" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="C267" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B268" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="C268" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B269" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="C269" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B270" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="C270" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B271" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="C271" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B272" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="C272" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B273" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="C273" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B274" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="C274" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B275" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="C275" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B276" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="C276" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B277" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="C277" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B278" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="C278" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B279" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="C279" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B280" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C280" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B281" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="C281" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B282" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="C282" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B283" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="C283" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B284" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="C284" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B285" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="C285" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E285" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B286" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="C286" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E286" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B287" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="C287" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E287" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B288" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="C288" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E288" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B289" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="C289" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E289" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B290" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="C290" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E290" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B291" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="C291" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E291" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B292" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="C292" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E292" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B293" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="C293" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E293" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B294" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="C294" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E294" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B295" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="C295" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E295" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B296" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="C296" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E296" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B297" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="C297" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E297" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B298" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="C298" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E298" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B299" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="C299" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E299" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B300" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="C300" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E300" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B301" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="C301" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E301" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B302" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="C302" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E302" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B303" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="C303" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E303" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B304" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="C304" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E304" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B305" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="C305" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E305" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B306" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="C306" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E306" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B307" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="C307" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E307" s="0" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B308" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="C308" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E308" s="0" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B309" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="C309" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E309" s="0" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B310" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="C310" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E310" s="0" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B311" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="C311" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E311" s="0" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B312" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="C312" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E312" s="0" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B313" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="C313" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E313" s="0" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B314" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="C314" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E314" s="0" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B315" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="C315" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E315" s="0" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B316" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="C316" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E316" s="0" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B317" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="C317" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E317" s="0" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B318" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="C318" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E318" s="0" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B319" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="C319" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E319" s="0" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B320" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="C320" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E320" s="0" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B321" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="C321" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E321" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B322" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C322" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E322" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B323" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="C323" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E323" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B324" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="C324" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E324" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B325" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="C325" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E325" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B326" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="C326" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E326" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B327" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C327" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E327" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B328" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="C328" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E328" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B329" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="C329" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E329" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B330" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="C330" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E330" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B331" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="C331" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E331" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B332" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="C332" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E332" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B333" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C333" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E333" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B334" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="C334" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E334" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B335" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="C335" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E335" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B336" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="C336" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E336" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B337" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="C337" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E337" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B338" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="C338" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E338" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B339" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="C339" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E339" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B340" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="C340" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E340" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B341" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="C341" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E341" s="0" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B342" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="C342" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E342" s="0" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B343" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="C343" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E343" s="0" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B344" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="C344" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E344" s="0" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B345" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="C345" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E345" s="0" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B346" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="C346" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E346" s="0" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B347" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="C347" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E347" s="0" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B348" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="C348" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E348" s="0" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B349" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="C349" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E349" s="0" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B350" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="C350" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E350" s="0" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B351" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="C351" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E351" s="0" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B352" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="C352" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E352" s="0" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B353" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="C353" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E353" s="0" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B354" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="C354" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E354" s="0" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B355" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="C355" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E355" s="0" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B356" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="C356" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E356" s="0" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B357" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="C357" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E357" s="0" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B358" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="C358" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E358" s="0" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B359" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="C359" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E359" s="0" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B360" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="C360" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E360" s="0" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B361" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="C361" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E361" s="0" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B362" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="C362" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E362" s="0" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B363" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="C363" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E363" s="0" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B364" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="C364" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E364" s="0" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B365" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="C365" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E365" s="0" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B366" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="C366" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E366" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B367" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="C367" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E367" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B368" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="C368" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E368" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B369" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="C369" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E369" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B370" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="C370" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E370" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B371" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="C371" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E371" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B372" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="C372" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E372" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B373" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="C373" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E373" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B374" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="C374" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E374" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B375" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="C375" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E375" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B376" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="C376" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E376" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B377" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="C377" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E377" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B378" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="C378" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E378" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B379" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="C379" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E379" s="0" t="s">
+        <v>267</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K86"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
